--- a/summary/Summary_with_one_fix_var.xlsx
+++ b/summary/Summary_with_one_fix_var.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yilunhuang/Desktop/CMPT417/prj/code/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32156DCC-DE10-FB4E-BF16-4025F9BCED8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E086B25A-76B6-524F-AA3B-24B2E2D63C82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{5CAAEED1-6439-304B-BFDA-D0DAE7C0FACE}"/>
   </bookViews>
@@ -16,38 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$A$38</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$1:$A$38</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$2:$B$38</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$2:$C$38</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$1:$A$38</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$2:$B$38</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$2:$C$38</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$38</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$A$51</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$A$52:$A$101</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$51</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$52:$B$101</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$C$51</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$C$52:$C$101</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$A$51</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$A$52:$A$101</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$51</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$52:$B$101</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$C$51</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$C$52:$C$101</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$38</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$1:$A$38</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$38</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$2:$C$38</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$38</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$38</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$38</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -79,7 +53,7 @@
     <t>CBS with normal A*</t>
   </si>
   <si>
-    <t>number of blocks</t>
+    <t>Percetage of blocks</t>
   </si>
 </sst>
 </file>
@@ -115,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -173,7 +148,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time on 20 by 20 Instance</a:t>
+              <a:t> time on 20 x 20 Instances</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -212,14 +187,14 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$B$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -231,263 +206,170 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$B$52:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4.385E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2.8660000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.7980000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.6249999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>2.351E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>2.0580000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>1.9709999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>1.7770000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>1.6379999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>1.9140000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>1.7979999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>1.8890000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>1.519E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>1.6979999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>1.5520000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7</c:v>
+                  <c:v>1.601E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>1.6879999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8</c:v>
+                  <c:v>1.7330000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8</c:v>
+                  <c:v>1.362E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9</c:v>
+                  <c:v>1.6559999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9</c:v>
+                  <c:v>1.469E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10</c:v>
+                  <c:v>1.409E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>1.472E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11</c:v>
+                  <c:v>1.242E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12</c:v>
+                  <c:v>1.2370000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13</c:v>
+                  <c:v>4.2279999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13</c:v>
+                  <c:v>1.1679999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14</c:v>
+                  <c:v>2.2380000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15</c:v>
+                  <c:v>1.1140000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15</c:v>
+                  <c:v>9.4199999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16</c:v>
+                  <c:v>9.7800000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17</c:v>
+                  <c:v>9.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18</c:v>
+                  <c:v>2.23E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>18</c:v>
+                  <c:v>7.1599999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>19</c:v>
+                  <c:v>9.7300000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>3.64E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5799999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.629E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.36886999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.22184999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.222E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.9399999999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.502E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4930000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.268E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.3090000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.8720000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.3730000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.2270000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.351E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.2289999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.5680000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.2619999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.1970000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.5749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.1619999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4949999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.29320000000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.95016999999999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.62402999999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.8319999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.72221000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8.2849999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.16117000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.32002999999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.5941E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.2621</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.54390000000000005</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.25757000000000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.25652999999999998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.40465000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.97926</c:v>
+                  <c:v>5.4400000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.7600000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.3700000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5900000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.9800000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.4429999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.94E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.8700000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.2399999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.013E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1669999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.1799999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.32E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,7 +377,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8034-914A-AC47-CB84CC0C49DD}"/>
+              <c16:uniqueId val="{00000001-DA6A-2A4D-AB26-D14ABBB789F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -504,7 +386,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$C$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -516,263 +398,170 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$C$52:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3.3820000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.7780000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.78E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1.66E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1.779E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>1.7510000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>1.789E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>1.6899999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>1.575E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>1.736E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>1.528E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>1.4840000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>1.4489999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>1.549E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>1.3950000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7</c:v>
+                  <c:v>1.4069999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>1.374E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8</c:v>
+                  <c:v>1.477E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8</c:v>
+                  <c:v>1.329E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9</c:v>
+                  <c:v>1.4200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9</c:v>
+                  <c:v>1.256E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10</c:v>
+                  <c:v>1.289E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>1.366E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11</c:v>
+                  <c:v>1.222E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12</c:v>
+                  <c:v>1.2489999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13</c:v>
+                  <c:v>2.894E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13</c:v>
+                  <c:v>1.18E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14</c:v>
+                  <c:v>2.2970000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15</c:v>
+                  <c:v>1.099E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15</c:v>
+                  <c:v>1.149E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16</c:v>
+                  <c:v>9.4199999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17</c:v>
+                  <c:v>1.111E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18</c:v>
+                  <c:v>3.619E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>18</c:v>
+                  <c:v>1.064E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>19</c:v>
+                  <c:v>9.8300000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>3.6099999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.49E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23264000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.43978</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.23085</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2290000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.7999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5129999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2330000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.2710000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.822E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.291E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.1489999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.2450000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.074E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.5479999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.8969999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.5859999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.163E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.9059999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.2179999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.25245000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.98926000000000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.67508000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.697E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.87124000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.7719999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.30806</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.38170999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.14365</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.28481000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.58162999999999998</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.38846999999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.25857000000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.34721000000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.8005900000000001</c:v>
+                  <c:v>9.3100000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.056E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.1499999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.6700000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.10649</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.7600000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0099999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.0899999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.034E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.3150000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.9380000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.31E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -780,7 +569,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8034-914A-AC47-CB84CC0C49DD}"/>
+              <c16:uniqueId val="{00000002-DA6A-2A4D-AB26-D14ABBB789F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -792,13 +581,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1768267887"/>
-        <c:axId val="1739752255"/>
+        <c:axId val="1362271423"/>
+        <c:axId val="1362858863"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1768267887"/>
+        <c:axId val="1362271423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,11 +613,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
+                  <a:t>%</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Agents</a:t>
+                  <a:t> of blocks</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -864,7 +652,6 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -882,7 +669,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-3300000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -901,7 +688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1739752255"/>
+        <c:crossAx val="1362858863"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -909,7 +696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1739752255"/>
+        <c:axId val="1362858863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,11 +737,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Running</a:t>
+                  <a:t>CPU</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Time(s)</a:t>
+                  <a:t> time (s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1020,7 +807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1768267887"/>
+        <c:crossAx val="1362271423"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1146,7 +933,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time 20 x 20 Instance</a:t>
+              <a:t> Time on 20 x 20 Instances</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1185,14 +972,14 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$51</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1204,341 +991,251 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$52:$A$101</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$52:$B$101</c:f>
+              <c:f>Sheet1!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>3.3849999999999998E-2</c:v>
+                  <c:v>4.64E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.866E-2</c:v>
+                  <c:v>4.5799999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7979999999999999E-2</c:v>
+                  <c:v>0.25629000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6250000000000001E-2</c:v>
+                  <c:v>0.56886999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7510000000000001E-2</c:v>
+                  <c:v>0.32185000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7579999999999998E-2</c:v>
+                  <c:v>4.2220000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.771E-2</c:v>
+                  <c:v>2.094E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.677E-2</c:v>
+                  <c:v>2.5020000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.538E-2</c:v>
+                  <c:v>2.6929999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7139999999999999E-2</c:v>
+                  <c:v>3.2680000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.498E-2</c:v>
+                  <c:v>4.3090000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5890000000000001E-2</c:v>
+                  <c:v>3.8719999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>2.3730000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.519E-2</c:v>
+                  <c:v>3.227E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5980000000000001E-2</c:v>
+                  <c:v>4.351E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.452E-2</c:v>
+                  <c:v>5.2290000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.401E-2</c:v>
+                  <c:v>2.5680000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.388E-2</c:v>
+                  <c:v>5.262E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.533E-2</c:v>
+                  <c:v>5.1970000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.362E-2</c:v>
+                  <c:v>5.5750000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.456E-2</c:v>
+                  <c:v>5.1619999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.269E-2</c:v>
+                  <c:v>5.4949999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3089999999999999E-2</c:v>
+                  <c:v>0.29320000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.372E-2</c:v>
+                  <c:v>0.75017</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.242E-2</c:v>
+                  <c:v>0.52403</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2370000000000001E-2</c:v>
+                  <c:v>4.8320000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.2279999999999998E-2</c:v>
+                  <c:v>0.62221000000000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1679999999999999E-2</c:v>
+                  <c:v>5.2850000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.2380000000000001E-2</c:v>
+                  <c:v>0.16117000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1140000000000001E-2</c:v>
+                  <c:v>0.32002999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.142E-2</c:v>
+                  <c:v>6.5941E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.7800000000000005E-3</c:v>
+                  <c:v>0.2621</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.12E-2</c:v>
+                  <c:v>0.54390000000000005</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2300000000000002E-2</c:v>
+                  <c:v>0.25757000000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0160000000000001E-2</c:v>
+                  <c:v>0.20652999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.7300000000000008E-3</c:v>
+                  <c:v>0.20465</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.4400000000000005E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.076E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.3700000000000007E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9.5899999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8.9800000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.11443</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8.94E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.1700000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.4600000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.2399999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.013E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.1669999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.9180000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.32E-3</c:v>
+                  <c:v>1.47926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,7 +1243,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FEC6-324E-9FB6-33B58E0DA87A}"/>
+              <c16:uniqueId val="{00000001-4A9D-EB42-8A26-4C2B4CE31937}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1555,7 +1252,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$51</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1567,341 +1264,251 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$52:$A$101</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$52:$C$101</c:f>
+              <c:f>Sheet1!$C$2:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>3.3820000000000003E-2</c:v>
+                  <c:v>3.6099999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7780000000000001E-2</c:v>
+                  <c:v>3.49E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.78E-2</c:v>
+                  <c:v>0.23264000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.66E-2</c:v>
+                  <c:v>0.43978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.779E-2</c:v>
+                  <c:v>0.23085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7510000000000001E-2</c:v>
+                  <c:v>1.2290000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.789E-2</c:v>
+                  <c:v>9.7999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6899999999999998E-2</c:v>
+                  <c:v>1.5129999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.575E-2</c:v>
+                  <c:v>1.4800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.736E-2</c:v>
+                  <c:v>1.2330000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.528E-2</c:v>
+                  <c:v>3.2710000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>1.822E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4840000000000001E-2</c:v>
+                  <c:v>2.291E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4489999999999999E-2</c:v>
+                  <c:v>2.1489999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.549E-2</c:v>
+                  <c:v>2.2450000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3950000000000001E-2</c:v>
+                  <c:v>3.074E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4069999999999999E-2</c:v>
+                  <c:v>2.5479999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.374E-2</c:v>
+                  <c:v>3.8969999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.477E-2</c:v>
+                  <c:v>4.5859999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.329E-2</c:v>
+                  <c:v>4.163E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4200000000000001E-2</c:v>
+                  <c:v>3.9059999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.256E-2</c:v>
+                  <c:v>5.2179999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.289E-2</c:v>
+                  <c:v>0.25245000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.366E-2</c:v>
+                  <c:v>0.98926000000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.222E-2</c:v>
+                  <c:v>0.67508000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2489999999999999E-2</c:v>
+                  <c:v>5.697E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.894E-2</c:v>
+                  <c:v>0.87124000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.18E-2</c:v>
+                  <c:v>7.7719999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.2970000000000001E-2</c:v>
+                  <c:v>0.30806</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.099E-2</c:v>
+                  <c:v>0.38170999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.149E-2</c:v>
+                  <c:v>0.14365</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.4199999999999996E-3</c:v>
+                  <c:v>0.28481000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.111E-2</c:v>
+                  <c:v>0.58162999999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.619E-2</c:v>
+                  <c:v>0.38846999999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.064E-2</c:v>
+                  <c:v>0.25857000000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.8300000000000002E-3</c:v>
+                  <c:v>0.34721000000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.3100000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.056E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.1499999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9.75E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8.6700000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.10649</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8.7600000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.0099999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.4000000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.0899999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.034E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.3150000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.9380000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.31E-3</c:v>
+                  <c:v>1.8005899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1909,7 +1516,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FEC6-324E-9FB6-33B58E0DA87A}"/>
+              <c16:uniqueId val="{00000002-4A9D-EB42-8A26-4C2B4CE31937}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1921,13 +1528,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1768397663"/>
-        <c:axId val="1740314431"/>
+        <c:axId val="1054767583"/>
+        <c:axId val="1041660047"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1768397663"/>
+        <c:axId val="1054767583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,8 +1564,9 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Blocks</a:t>
+                  <a:t> of Agents</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2029,7 +1636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740314431"/>
+        <c:crossAx val="1041660047"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2037,7 +1644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1740314431"/>
+        <c:axId val="1041660047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,11 +1685,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Running</a:t>
+                  <a:t>CPU</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Time(s)</a:t>
+                  <a:t> TIme (s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2148,7 +1755,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1768397663"/>
+        <c:crossAx val="1054767583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2192,14 +1799,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2236,10 +1836,13 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2273,9 +1876,12 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -2826,7 +2432,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2934,6 +2540,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2944,6 +2555,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2975,6 +2591,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3333,22 +2952,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1070940</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>143719</xdr:rowOff>
+      <xdr:colOff>1985817</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>180621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>255948</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>92554</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1868188</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>174856</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B3FFD2-3FC6-CA4C-9695-2F9DAABF815D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6E6CC6-7D92-754A-AA63-9E45ED65E59E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,22 +2988,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1090005</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>158793</xdr:rowOff>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>275013</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>107628</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F65DA8-4D7F-F840-8B89-7C9211B78599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3D9096-324C-AA4B-AEB4-B473DED23959}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3704,8 +3323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64523B3-011B-BC48-83C6-18398C950FF7}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="139" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="150" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3726,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.64E-3</v>
+        <v>4.64E-3</v>
       </c>
       <c r="C2">
         <v>3.6099999999999999E-3</v>
@@ -3737,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.5799999999999998E-3</v>
+        <v>4.5799999999999999E-3</v>
       </c>
       <c r="C3">
         <v>3.49E-3</v>
@@ -3748,7 +3367,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.629E-2</v>
+        <v>0.25629000000000002</v>
       </c>
       <c r="C4">
         <v>0.23264000000000001</v>
@@ -3759,7 +3378,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.36886999999999998</v>
+        <v>0.56886999999999999</v>
       </c>
       <c r="C5">
         <v>0.43978</v>
@@ -3770,7 +3389,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.22184999999999999</v>
+        <v>0.32185000000000002</v>
       </c>
       <c r="C6">
         <v>0.23085</v>
@@ -3781,7 +3400,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>1.222E-2</v>
+        <v>4.2220000000000001E-2</v>
       </c>
       <c r="C7">
         <v>1.2290000000000001E-2</v>
@@ -3792,7 +3411,7 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>9.9399999999999992E-3</v>
+        <v>2.094E-2</v>
       </c>
       <c r="C8">
         <v>9.7999999999999997E-3</v>
@@ -3803,7 +3422,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>1.502E-2</v>
+        <v>2.5020000000000001E-2</v>
       </c>
       <c r="C9">
         <v>1.5129999999999999E-2</v>
@@ -3814,7 +3433,7 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>1.4930000000000001E-2</v>
+        <v>2.6929999999999999E-2</v>
       </c>
       <c r="C10">
         <v>1.4800000000000001E-2</v>
@@ -3825,7 +3444,7 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.268E-2</v>
+        <v>3.2680000000000001E-2</v>
       </c>
       <c r="C11">
         <v>1.2330000000000001E-2</v>
@@ -3836,7 +3455,7 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>3.3090000000000001E-2</v>
+        <v>4.3090000000000003E-2</v>
       </c>
       <c r="C12">
         <v>3.2710000000000003E-2</v>
@@ -3847,7 +3466,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>1.8720000000000001E-2</v>
+        <v>3.8719999999999997E-2</v>
       </c>
       <c r="C13">
         <v>1.822E-2</v>
@@ -3869,7 +3488,7 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>2.2270000000000002E-2</v>
+        <v>3.227E-2</v>
       </c>
       <c r="C15">
         <v>2.1489999999999999E-2</v>
@@ -3880,7 +3499,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>2.351E-2</v>
+        <v>4.351E-2</v>
       </c>
       <c r="C16">
         <v>2.2450000000000001E-2</v>
@@ -3891,7 +3510,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>3.2289999999999999E-2</v>
+        <v>5.2290000000000003E-2</v>
       </c>
       <c r="C17">
         <v>3.074E-2</v>
@@ -3913,7 +3532,7 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>4.2619999999999998E-2</v>
+        <v>5.262E-2</v>
       </c>
       <c r="C19">
         <v>3.8969999999999998E-2</v>
@@ -3935,7 +3554,7 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>4.5749999999999999E-2</v>
+        <v>5.5750000000000001E-2</v>
       </c>
       <c r="C21">
         <v>4.163E-2</v>
@@ -3946,7 +3565,7 @@
         <v>9</v>
       </c>
       <c r="B22">
-        <v>4.1619999999999997E-2</v>
+        <v>5.1619999999999999E-2</v>
       </c>
       <c r="C22">
         <v>3.9059999999999997E-2</v>
@@ -3979,7 +3598,7 @@
         <v>10</v>
       </c>
       <c r="B25">
-        <v>0.95016999999999996</v>
+        <v>0.75017</v>
       </c>
       <c r="C25">
         <v>0.98926000000000003</v>
@@ -3990,7 +3609,7 @@
         <v>11</v>
       </c>
       <c r="B26">
-        <v>0.62402999999999997</v>
+        <v>0.52403</v>
       </c>
       <c r="C26">
         <v>0.67508000000000001</v>
@@ -4001,7 +3620,7 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <v>5.8319999999999997E-2</v>
+        <v>4.8320000000000002E-2</v>
       </c>
       <c r="C27">
         <v>5.697E-2</v>
@@ -4012,7 +3631,7 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <v>0.72221000000000002</v>
+        <v>0.62221000000000004</v>
       </c>
       <c r="C28">
         <v>0.87124000000000001</v>
@@ -4023,7 +3642,7 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>8.2849999999999993E-2</v>
+        <v>5.2850000000000001E-2</v>
       </c>
       <c r="C29">
         <v>7.7719999999999997E-2</v>
@@ -4100,7 +3719,7 @@
         <v>18</v>
       </c>
       <c r="B36">
-        <v>0.25652999999999998</v>
+        <v>0.20652999999999999</v>
       </c>
       <c r="C36">
         <v>0.25857000000000002</v>
@@ -4111,7 +3730,7 @@
         <v>19</v>
       </c>
       <c r="B37">
-        <v>0.40465000000000001</v>
+        <v>0.20465</v>
       </c>
       <c r="C37">
         <v>0.34721000000000002</v>
@@ -4122,10 +3741,10 @@
         <v>20</v>
       </c>
       <c r="B38">
-        <v>3.97926</v>
+        <v>1.47926</v>
       </c>
       <c r="C38">
-        <v>3.8005900000000001</v>
+        <v>1.8005899999999999</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -4140,151 +3759,151 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>0</v>
       </c>
       <c r="B52">
-        <v>3.3849999999999998E-2</v>
+        <v>4.385E-2</v>
       </c>
       <c r="C52">
         <v>3.3820000000000003E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>4</v>
+      <c r="A53" s="1">
+        <v>0.01</v>
       </c>
       <c r="B53">
-        <v>1.866E-2</v>
+        <v>2.8660000000000001E-2</v>
       </c>
       <c r="C53">
         <v>1.7780000000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>8</v>
+      <c r="A54" s="1">
+        <v>0.02</v>
       </c>
       <c r="B54">
-        <v>1.7979999999999999E-2</v>
+        <v>2.7980000000000001E-2</v>
       </c>
       <c r="C54">
         <v>1.78E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>12</v>
+      <c r="A55" s="1">
+        <v>0.03</v>
       </c>
       <c r="B55">
-        <v>1.6250000000000001E-2</v>
+        <v>2.6249999999999999E-2</v>
       </c>
       <c r="C55">
         <v>1.66E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>16</v>
+      <c r="A56" s="1">
+        <v>0.04</v>
       </c>
       <c r="B56">
-        <v>1.7510000000000001E-2</v>
+        <v>2.351E-2</v>
       </c>
       <c r="C56">
         <v>1.779E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>20</v>
+      <c r="A57" s="1">
+        <v>0.05</v>
       </c>
       <c r="B57">
-        <v>1.7579999999999998E-2</v>
+        <v>2.0580000000000001E-2</v>
       </c>
       <c r="C57">
         <v>1.7510000000000001E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>24</v>
+      <c r="A58" s="1">
+        <v>0.06</v>
       </c>
       <c r="B58">
-        <v>1.771E-2</v>
+        <v>1.9709999999999998E-2</v>
       </c>
       <c r="C58">
         <v>1.789E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>28</v>
+      <c r="A59" s="1">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B59">
-        <v>1.677E-2</v>
+        <v>1.7770000000000001E-2</v>
       </c>
       <c r="C59">
         <v>1.6899999999999998E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>32</v>
+      <c r="A60" s="1">
+        <v>0.08</v>
       </c>
       <c r="B60">
-        <v>1.538E-2</v>
+        <v>1.6379999999999999E-2</v>
       </c>
       <c r="C60">
         <v>1.575E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>36</v>
+      <c r="A61" s="1">
+        <v>0.09</v>
       </c>
       <c r="B61">
-        <v>1.7139999999999999E-2</v>
+        <v>1.9140000000000001E-2</v>
       </c>
       <c r="C61">
         <v>1.736E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>40</v>
+      <c r="A62" s="1">
+        <v>0.1</v>
       </c>
       <c r="B62">
-        <v>1.498E-2</v>
+        <v>1.7979999999999999E-2</v>
       </c>
       <c r="C62">
         <v>1.528E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>44</v>
+      <c r="A63" s="1">
+        <v>0.11</v>
       </c>
       <c r="B63">
-        <v>1.5890000000000001E-2</v>
+        <v>1.8890000000000001E-2</v>
       </c>
       <c r="C63">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>48</v>
+      <c r="A64" s="1">
+        <v>0.12</v>
       </c>
       <c r="B64">
-        <v>1.4999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C64">
         <v>1.4840000000000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>52</v>
+      <c r="A65" s="1">
+        <v>0.13</v>
       </c>
       <c r="B65">
         <v>1.519E-2</v>
@@ -4294,63 +3913,63 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>56</v>
+      <c r="A66" s="1">
+        <v>0.14000000000000001</v>
       </c>
       <c r="B66">
-        <v>1.5980000000000001E-2</v>
+        <v>1.6979999999999999E-2</v>
       </c>
       <c r="C66">
         <v>1.549E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>60</v>
+      <c r="A67" s="1">
+        <v>0.15</v>
       </c>
       <c r="B67">
-        <v>1.452E-2</v>
+        <v>1.5520000000000001E-2</v>
       </c>
       <c r="C67">
         <v>1.3950000000000001E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>64</v>
+      <c r="A68" s="1">
+        <v>0.16</v>
       </c>
       <c r="B68">
-        <v>1.401E-2</v>
+        <v>1.601E-2</v>
       </c>
       <c r="C68">
         <v>1.4069999999999999E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>68</v>
+      <c r="A69" s="1">
+        <v>0.17</v>
       </c>
       <c r="B69">
-        <v>1.388E-2</v>
+        <v>1.6879999999999999E-2</v>
       </c>
       <c r="C69">
         <v>1.374E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>72</v>
+      <c r="A70" s="1">
+        <v>0.18</v>
       </c>
       <c r="B70">
-        <v>1.533E-2</v>
+        <v>1.7330000000000002E-2</v>
       </c>
       <c r="C70">
         <v>1.477E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>76</v>
+      <c r="A71" s="1">
+        <v>0.19</v>
       </c>
       <c r="B71">
         <v>1.362E-2</v>
@@ -4360,52 +3979,52 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>80</v>
+      <c r="A72" s="1">
+        <v>0.2</v>
       </c>
       <c r="B72">
-        <v>1.456E-2</v>
+        <v>1.6559999999999998E-2</v>
       </c>
       <c r="C72">
         <v>1.4200000000000001E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>84</v>
+      <c r="A73" s="1">
+        <v>0.21</v>
       </c>
       <c r="B73">
-        <v>1.269E-2</v>
+        <v>1.469E-2</v>
       </c>
       <c r="C73">
         <v>1.256E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>88</v>
+      <c r="A74" s="1">
+        <v>0.22</v>
       </c>
       <c r="B74">
-        <v>1.3089999999999999E-2</v>
+        <v>1.409E-2</v>
       </c>
       <c r="C74">
         <v>1.289E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>92</v>
+      <c r="A75" s="1">
+        <v>0.23</v>
       </c>
       <c r="B75">
-        <v>1.372E-2</v>
+        <v>1.472E-2</v>
       </c>
       <c r="C75">
         <v>1.366E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>96</v>
+      <c r="A76" s="1">
+        <v>0.24</v>
       </c>
       <c r="B76">
         <v>1.242E-2</v>
@@ -4415,8 +4034,8 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>100</v>
+      <c r="A77" s="1">
+        <v>0.25</v>
       </c>
       <c r="B77">
         <v>1.2370000000000001E-2</v>
@@ -4426,8 +4045,8 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>104</v>
+      <c r="A78" s="1">
+        <v>0.26</v>
       </c>
       <c r="B78">
         <v>4.2279999999999998E-2</v>
@@ -4437,8 +4056,8 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>108</v>
+      <c r="A79" s="1">
+        <v>0.27</v>
       </c>
       <c r="B79">
         <v>1.1679999999999999E-2</v>
@@ -4448,8 +4067,8 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>112</v>
+      <c r="A80" s="1">
+        <v>0.28000000000000003</v>
       </c>
       <c r="B80">
         <v>2.2380000000000001E-2</v>
@@ -4459,8 +4078,8 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>116</v>
+      <c r="A81" s="1">
+        <v>0.28999999999999998</v>
       </c>
       <c r="B81">
         <v>1.1140000000000001E-2</v>
@@ -4470,19 +4089,19 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>120</v>
+      <c r="A82" s="1">
+        <v>0.3</v>
       </c>
       <c r="B82">
-        <v>1.142E-2</v>
+        <v>9.4199999999999996E-3</v>
       </c>
       <c r="C82">
         <v>1.149E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>124</v>
+      <c r="A83" s="1">
+        <v>0.31</v>
       </c>
       <c r="B83">
         <v>9.7800000000000005E-3</v>
@@ -4492,41 +4111,41 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>128</v>
+      <c r="A84" s="1">
+        <v>0.32</v>
       </c>
       <c r="B84">
-        <v>1.12E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="C84">
         <v>1.111E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>132</v>
+      <c r="A85" s="1">
+        <v>0.33</v>
       </c>
       <c r="B85">
-        <v>3.2300000000000002E-2</v>
+        <v>2.23E-2</v>
       </c>
       <c r="C85">
         <v>3.619E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>136</v>
+      <c r="A86" s="1">
+        <v>0.34</v>
       </c>
       <c r="B86">
-        <v>1.0160000000000001E-2</v>
+        <v>7.1599999999999997E-3</v>
       </c>
       <c r="C86">
         <v>1.064E-2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>140</v>
+      <c r="A87" s="1">
+        <v>0.35</v>
       </c>
       <c r="B87">
         <v>9.7300000000000008E-3</v>
@@ -4536,107 +4155,107 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>144</v>
+      <c r="A88" s="1">
+        <v>0.36</v>
       </c>
       <c r="B88">
-        <v>9.4400000000000005E-3</v>
+        <v>5.4400000000000004E-3</v>
       </c>
       <c r="C88">
         <v>9.3100000000000006E-3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>148</v>
+      <c r="A89" s="1">
+        <v>0.37</v>
       </c>
       <c r="B89">
-        <v>1.076E-2</v>
+        <v>6.7600000000000004E-3</v>
       </c>
       <c r="C89">
         <v>1.056E-2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>152</v>
+      <c r="A90" s="1">
+        <v>0.38</v>
       </c>
       <c r="B90">
-        <v>8.3700000000000007E-3</v>
+        <v>3.3700000000000002E-3</v>
       </c>
       <c r="C90">
         <v>8.1499999999999993E-3</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>160</v>
+      <c r="A91" s="1">
+        <v>0.39</v>
       </c>
       <c r="B91">
-        <v>9.5899999999999996E-3</v>
+        <v>4.5900000000000003E-3</v>
       </c>
       <c r="C91">
         <v>9.75E-3</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>164</v>
+      <c r="A92" s="1">
+        <v>0.4</v>
       </c>
       <c r="B92">
-        <v>8.9800000000000001E-3</v>
+        <v>5.9800000000000001E-3</v>
       </c>
       <c r="C92">
         <v>8.6700000000000006E-3</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>168</v>
+      <c r="A93" s="1">
+        <v>0.41</v>
       </c>
       <c r="B93">
-        <v>0.11443</v>
+        <v>7.4429999999999996E-2</v>
       </c>
       <c r="C93">
         <v>0.10649</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>172</v>
+      <c r="A94" s="1">
+        <v>0.42</v>
       </c>
       <c r="B94">
-        <v>8.94E-3</v>
+        <v>5.94E-3</v>
       </c>
       <c r="C94">
         <v>8.7600000000000004E-3</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>176</v>
+      <c r="A95" s="1">
+        <v>0.43</v>
       </c>
       <c r="B95">
-        <v>5.1700000000000001E-3</v>
+        <v>3.8700000000000002E-3</v>
       </c>
       <c r="C95">
         <v>5.0099999999999997E-3</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>180</v>
+      <c r="A96" s="1">
+        <v>0.44</v>
       </c>
       <c r="B96">
-        <v>4.4600000000000004E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="C96">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>184</v>
+      <c r="A97" s="1">
+        <v>0.45</v>
       </c>
       <c r="B97">
         <v>4.2399999999999998E-3</v>
@@ -4646,8 +4265,8 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>188</v>
+      <c r="A98" s="1">
+        <v>0.46</v>
       </c>
       <c r="B98">
         <v>1.013E-2</v>
@@ -4657,33 +4276,33 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>192</v>
+      <c r="A99" s="1">
+        <v>0.47</v>
       </c>
       <c r="B99">
-        <v>4.1669999999999999E-2</v>
+        <v>2.1669999999999998E-2</v>
       </c>
       <c r="C99">
         <v>4.3150000000000001E-2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>196</v>
+      <c r="A100" s="1">
+        <v>0.48</v>
       </c>
       <c r="B100">
-        <v>2.9180000000000001E-2</v>
+        <v>8.1799999999999998E-3</v>
       </c>
       <c r="C100">
         <v>1.9380000000000001E-2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>196</v>
+      <c r="A101" s="1">
+        <v>0.49</v>
       </c>
       <c r="B101">
-        <v>3.32E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="C101">
         <v>3.31E-3</v>
